--- a/map/Clue Map.xlsx
+++ b/map/Clue Map.xlsx
@@ -597,7 +597,7 @@
   <dimension ref="A1:AP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4321,7 +4321,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
